--- a/H1299_143B_prot-nucl-quant/AA_influx_143B-GOT-DKO/influx.xlsx
+++ b/H1299_143B_prot-nucl-quant/AA_influx_143B-GOT-DKO/influx.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
-  <si>
-    <t>Samples_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+  <si>
+    <t>Sample_name</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
   <si>
     <t>Alanine pos</t>
@@ -35,9 +38,6 @@
   </si>
   <si>
     <t>Glutamine pos</t>
-  </si>
-  <si>
-    <t>Glycine neg</t>
   </si>
   <si>
     <t>Isoleucine pos</t>
@@ -476,134 +476,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
@@ -616,29 +619,35 @@
       <c r="F3" t="s">
         <v>34</v>
       </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" t="s">
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
         <v>34</v>
@@ -649,752 +658,713 @@
       <c r="S3" t="s">
         <v>34</v>
       </c>
-      <c r="T3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
       <c r="C4">
-        <v>-0.2318854663131879</v>
+        <v>-0.1976908230990747</v>
       </c>
       <c r="D4">
-        <v>1.486351965620344</v>
+        <v>1.668877588437393</v>
       </c>
       <c r="E4">
-        <v>-0.9143614726102427</v>
+        <v>-0.9916756214476237</v>
       </c>
       <c r="F4">
-        <v>4.24109054296954</v>
+        <v>4.53777615523043</v>
       </c>
       <c r="G4">
-        <v>-7.387576104049298</v>
+        <v>-7.386666103244165</v>
       </c>
       <c r="H4">
-        <v>30.80573913614681</v>
+        <v>30.86687853890717</v>
       </c>
       <c r="I4">
-        <v>0.4674572419730458</v>
+        <v>3.389609757650578</v>
       </c>
       <c r="J4">
-        <v>3.122835506820941</v>
+        <v>3.513847614725071</v>
       </c>
       <c r="K4">
-        <v>3.398752113918249</v>
+        <v>1.845894210784885</v>
       </c>
       <c r="L4">
-        <v>1.836688280045545</v>
+        <v>0.6114702317105837</v>
       </c>
       <c r="M4">
-        <v>0.5816754613587369</v>
+        <v>1.205246138194753</v>
       </c>
       <c r="N4">
-        <v>1.084094484142625</v>
+        <v>-0.2722295797523007</v>
       </c>
       <c r="O4">
-        <v>-0.2993363678806025</v>
+        <v>3.704318025537702</v>
       </c>
       <c r="P4">
-        <v>3.745368423609383</v>
+        <v>1.978176577644994</v>
       </c>
       <c r="Q4">
-        <v>1.985480529005254</v>
+        <v>0.2994777298706934</v>
       </c>
       <c r="R4">
-        <v>0.3099320078903069</v>
+        <v>1.148225997915985</v>
       </c>
       <c r="S4">
-        <v>1.13365057278673</v>
-      </c>
-      <c r="T4">
-        <v>2.692885468586015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+        <v>2.705194325476246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
       <c r="C5">
-        <v>-0.2883287516513054</v>
+        <v>-0.2521202128978156</v>
       </c>
       <c r="D5">
-        <v>1.441157731543707</v>
+        <v>1.626332771969195</v>
       </c>
       <c r="E5">
-        <v>-1.247870559696348</v>
+        <v>-1.338323355562259</v>
       </c>
       <c r="F5">
-        <v>4.601611102341523</v>
+        <v>4.91959783770865</v>
       </c>
       <c r="G5">
-        <v>-8.246565134199797</v>
+        <v>-8.250706408015267</v>
       </c>
       <c r="H5">
-        <v>31.99295144986685</v>
+        <v>32.07192099838648</v>
       </c>
       <c r="I5">
-        <v>-0.08191686058939747</v>
+        <v>3.545734268514494</v>
       </c>
       <c r="J5">
-        <v>3.261240475894704</v>
+        <v>3.783820465290889</v>
       </c>
       <c r="K5">
-        <v>3.664017694707951</v>
+        <v>2.133556198879333</v>
       </c>
       <c r="L5">
-        <v>2.105416591347843</v>
+        <v>0.6331557610630135</v>
       </c>
       <c r="M5">
-        <v>0.5988697477098668</v>
+        <v>1.166208843526315</v>
       </c>
       <c r="N5">
-        <v>1.05220699945803</v>
+        <v>-0.3005288943979423</v>
       </c>
       <c r="O5">
-        <v>-0.3363735864408002</v>
+        <v>3.930175210847422</v>
       </c>
       <c r="P5">
-        <v>3.969409448984823</v>
+        <v>2.030625586072738</v>
       </c>
       <c r="Q5">
-        <v>2.019293420541667</v>
+        <v>0.2870166777584373</v>
       </c>
       <c r="R5">
-        <v>0.2964736881429352</v>
+        <v>0.8395770488033267</v>
       </c>
       <c r="S5">
-        <v>0.8179911375914857</v>
-      </c>
-      <c r="T5">
-        <v>2.578927981723811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+        <v>2.605888849477671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
       <c r="C6">
-        <v>-0.2656937739196713</v>
+        <v>-0.2375592389624449</v>
       </c>
       <c r="D6">
-        <v>1.945097814013606</v>
+        <v>2.19240934740187</v>
       </c>
       <c r="E6">
-        <v>-0.9949573410933419</v>
+        <v>-1.080377868675713</v>
       </c>
       <c r="F6">
-        <v>4.841580848231946</v>
+        <v>5.159218777999051</v>
       </c>
       <c r="G6">
-        <v>-7.940382190048857</v>
+        <v>-7.927875871924648</v>
       </c>
       <c r="H6">
-        <v>35.95182726089966</v>
+        <v>36.03846534061186</v>
       </c>
       <c r="I6">
-        <v>0.6727953673215021</v>
+        <v>2.731830863022316</v>
       </c>
       <c r="J6">
-        <v>2.511717011969988</v>
+        <v>5.848042818511781</v>
       </c>
       <c r="K6">
-        <v>5.668190221427434</v>
+        <v>2.749122363102042</v>
       </c>
       <c r="L6">
-        <v>2.715456366336702</v>
+        <v>0.8477013355563938</v>
       </c>
       <c r="M6">
-        <v>0.7976599289006107</v>
+        <v>1.5564595053661</v>
       </c>
       <c r="N6">
-        <v>1.388293374084036</v>
+        <v>-0.2886352999221793</v>
       </c>
       <c r="O6">
-        <v>-0.3240688703969751</v>
+        <v>4.05163906421988</v>
       </c>
       <c r="P6">
-        <v>4.078426711882901</v>
+        <v>3.052284591301146</v>
       </c>
       <c r="Q6">
-        <v>3.056043243459563</v>
+        <v>0.3581551130299225</v>
       </c>
       <c r="R6">
-        <v>0.358419683691784</v>
+        <v>1.313655661931677</v>
       </c>
       <c r="S6">
-        <v>1.310337188716395</v>
-      </c>
-      <c r="T6">
-        <v>3.134046551682158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+        <v>3.164421345163718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
       <c r="C7">
-        <v>-0.2969890527389513</v>
+        <v>-0.2715171743050191</v>
       </c>
       <c r="D7">
-        <v>1.85199160297857</v>
+        <v>2.095361201351433</v>
       </c>
       <c r="E7">
-        <v>-0.9931733217309779</v>
+        <v>-1.072094673200753</v>
       </c>
       <c r="F7">
-        <v>4.868081824651226</v>
+        <v>5.19607677651087</v>
       </c>
       <c r="G7">
-        <v>-7.777196027487191</v>
+        <v>-7.779862563365891</v>
       </c>
       <c r="H7">
-        <v>35.18938300679902</v>
+        <v>35.25517945679277</v>
       </c>
       <c r="I7">
-        <v>0.3475085601498259</v>
+        <v>3.735218785616983</v>
       </c>
       <c r="J7">
-        <v>3.44639117154943</v>
+        <v>3.723752827756233</v>
       </c>
       <c r="K7">
-        <v>3.609575627095118</v>
+        <v>2.900469558125335</v>
       </c>
       <c r="L7">
-        <v>2.879847933102382</v>
+        <v>0.7639980414225782</v>
       </c>
       <c r="M7">
-        <v>0.7135950544454103</v>
+        <v>1.381671030963445</v>
       </c>
       <c r="N7">
-        <v>1.234881877298552</v>
+        <v>-0.2885712761061903</v>
       </c>
       <c r="O7">
-        <v>-0.315980412463815</v>
+        <v>4.10046506849019</v>
       </c>
       <c r="P7">
-        <v>4.133065351133737</v>
+        <v>2.480756400285365</v>
       </c>
       <c r="Q7">
-        <v>2.480551653188468</v>
+        <v>0.3361020046668998</v>
       </c>
       <c r="R7">
-        <v>0.3297123356457989</v>
+        <v>1.363495826958458</v>
       </c>
       <c r="S7">
-        <v>1.360567480805518</v>
-      </c>
-      <c r="T7">
-        <v>2.740514220501007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+        <v>2.767049432299695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
       <c r="C8">
-        <v>-0.246399530176471</v>
+        <v>-0.2256681963648567</v>
       </c>
       <c r="D8">
-        <v>1.874578096617958</v>
+        <v>2.123916236123063</v>
       </c>
       <c r="E8">
-        <v>-0.9745128039665081</v>
+        <v>-1.048484062390015</v>
       </c>
       <c r="F8">
-        <v>5.008024649336157</v>
+        <v>5.360432060934465</v>
       </c>
       <c r="G8">
-        <v>-7.482870937700509</v>
+        <v>-7.479236724042012</v>
       </c>
       <c r="H8">
-        <v>34.48858188454657</v>
+        <v>34.56943608046768</v>
       </c>
       <c r="I8">
-        <v>0.6402504365861681</v>
+        <v>3.063572991415963</v>
       </c>
       <c r="J8">
-        <v>2.836572845882888</v>
+        <v>5.693597511051499</v>
       </c>
       <c r="K8">
-        <v>5.517394497739691</v>
+        <v>2.955920369714488</v>
       </c>
       <c r="L8">
-        <v>2.927438118996388</v>
+        <v>0.8042039510093605</v>
       </c>
       <c r="M8">
-        <v>0.7631950389942231</v>
+        <v>1.56558714620589</v>
       </c>
       <c r="N8">
-        <v>1.402447023319176</v>
+        <v>-0.2681587575427527</v>
       </c>
       <c r="O8">
-        <v>-0.3004679665370555</v>
+        <v>4.393211239436296</v>
       </c>
       <c r="P8">
-        <v>4.443761821130077</v>
+        <v>2.523102652973388</v>
       </c>
       <c r="Q8">
-        <v>2.525645207632047</v>
+        <v>0.4088948343282403</v>
       </c>
       <c r="R8">
-        <v>0.4237178072994623</v>
+        <v>1.415727105574423</v>
       </c>
       <c r="S8">
-        <v>1.402763739198566</v>
-      </c>
-      <c r="T8">
-        <v>3.196791344844766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+        <v>3.219966559462748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
       <c r="C9">
-        <v>-0.317173296875893</v>
+        <v>-0.2817966771851828</v>
       </c>
       <c r="D9">
-        <v>1.639292190110867</v>
+        <v>1.83646652876608</v>
       </c>
       <c r="E9">
-        <v>-1.132686821666712</v>
+        <v>-1.220341546704497</v>
       </c>
       <c r="F9">
-        <v>4.952783026194951</v>
+        <v>5.277170010956184</v>
       </c>
       <c r="G9">
-        <v>-8.841800616004964</v>
+        <v>-8.83269315147594</v>
       </c>
       <c r="H9">
-        <v>36.08995098588181</v>
+        <v>36.16479943642505</v>
       </c>
       <c r="I9">
-        <v>0.2145318067063141</v>
+        <v>2.255801104604311</v>
       </c>
       <c r="J9">
-        <v>2.074483160428675</v>
+        <v>5.756460770508114</v>
       </c>
       <c r="K9">
-        <v>5.559161152223578</v>
+        <v>2.435754160906945</v>
       </c>
       <c r="L9">
-        <v>2.424098304602785</v>
+        <v>0.6970981485837784</v>
       </c>
       <c r="M9">
-        <v>0.6507383447059373</v>
+        <v>1.348928075873737</v>
       </c>
       <c r="N9">
-        <v>1.209858478540724</v>
+        <v>-0.3193847512814186</v>
       </c>
       <c r="O9">
-        <v>-0.3492371825637028</v>
+        <v>4.133875028571303</v>
       </c>
       <c r="P9">
-        <v>4.167004222855897</v>
+        <v>2.368349803441666</v>
       </c>
       <c r="Q9">
-        <v>2.354392711225951</v>
+        <v>0.3171434743638771</v>
       </c>
       <c r="R9">
-        <v>0.3175698349930114</v>
+        <v>1.238550753874134</v>
       </c>
       <c r="S9">
-        <v>1.215105810128374</v>
-      </c>
-      <c r="T9">
-        <v>2.602966850922623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+        <v>2.62186139985404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
+      <c r="B10">
+        <v>31</v>
+      </c>
       <c r="C10">
-        <v>-0.3191004187162644</v>
+        <v>-0.2996735518187309</v>
       </c>
       <c r="D10">
-        <v>1.198410373141334</v>
+        <v>1.354545820369869</v>
       </c>
       <c r="E10">
-        <v>-1.078579421784253</v>
+        <v>-1.15190962773333</v>
       </c>
       <c r="F10">
-        <v>4.08439196990025</v>
+        <v>4.373211327171076</v>
       </c>
       <c r="G10">
-        <v>-5.683266984152757</v>
+        <v>-5.677180742312606</v>
       </c>
       <c r="H10">
-        <v>24.85115077223196</v>
+        <v>24.90537299894338</v>
       </c>
       <c r="I10">
-        <v>0.1741169316235838</v>
+        <v>1.94783827606523</v>
       </c>
       <c r="J10">
-        <v>1.797230236883094</v>
+        <v>3.593674179834519</v>
       </c>
       <c r="K10">
-        <v>3.477135392770659</v>
+        <v>1.823175182701564</v>
       </c>
       <c r="L10">
-        <v>1.801452481906749</v>
+        <v>0.5283690027968918</v>
       </c>
       <c r="M10">
-        <v>0.4997003097985881</v>
+        <v>0.9096116106180773</v>
       </c>
       <c r="N10">
-        <v>0.8073041845396401</v>
+        <v>-0.2387485024878762</v>
       </c>
       <c r="O10">
-        <v>-0.2638613724761605</v>
+        <v>3.802648022552066</v>
       </c>
       <c r="P10">
-        <v>3.82749659036735</v>
+        <v>1.232786958729727</v>
       </c>
       <c r="Q10">
-        <v>1.225002089956647</v>
+        <v>0.2429743334170944</v>
       </c>
       <c r="R10">
-        <v>0.2529197019293391</v>
+        <v>0.8611285140590491</v>
       </c>
       <c r="S10">
-        <v>0.8586584413758108</v>
-      </c>
-      <c r="T10">
-        <v>1.682628512626639</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+        <v>1.692065326984691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
       <c r="C11">
-        <v>-0.3226956805191602</v>
+        <v>-0.3068790544159682</v>
       </c>
       <c r="D11">
-        <v>1.574385673487398</v>
+        <v>1.786707966986726</v>
       </c>
       <c r="E11">
-        <v>-1.14419786682621</v>
+        <v>-1.225534236368672</v>
       </c>
       <c r="F11">
-        <v>4.822041247447106</v>
+        <v>5.158454633068007</v>
       </c>
       <c r="G11">
-        <v>-6.063330806350459</v>
+        <v>-6.054336351422505</v>
       </c>
       <c r="H11">
-        <v>30.25758935834144</v>
+        <v>30.32576449434795</v>
       </c>
       <c r="I11">
-        <v>0.3941386544538593</v>
+        <v>2.85529707719647</v>
       </c>
       <c r="J11">
-        <v>2.63337366471686</v>
+        <v>4.535474208141109</v>
       </c>
       <c r="K11">
-        <v>4.384960132687357</v>
+        <v>2.534316948962269</v>
       </c>
       <c r="L11">
-        <v>2.514220854222968</v>
+        <v>0.7403575856028187</v>
       </c>
       <c r="M11">
-        <v>0.700532546868375</v>
+        <v>1.391310715120105</v>
       </c>
       <c r="N11">
-        <v>1.23451466691368</v>
+        <v>-0.2408912371638516</v>
       </c>
       <c r="O11">
-        <v>-0.2719722230742865</v>
+        <v>4.08318380938131</v>
       </c>
       <c r="P11">
-        <v>4.110285618093514</v>
+        <v>2.285223226985292</v>
       </c>
       <c r="Q11">
-        <v>2.28832223624257</v>
+        <v>0.3384607658680104</v>
       </c>
       <c r="R11">
-        <v>0.3409343415633648</v>
+        <v>1.277998141035788</v>
       </c>
       <c r="S11">
-        <v>1.26599368727598</v>
-      </c>
-      <c r="T11">
-        <v>2.86084219990873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+        <v>2.873738198693853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
       <c r="C12">
-        <v>-0.3104930014298893</v>
+        <v>-0.2942941817111834</v>
       </c>
       <c r="D12">
-        <v>1.427308298112305</v>
+        <v>1.61564411874783</v>
       </c>
       <c r="E12">
-        <v>-1.097489458383603</v>
+        <v>-1.179089978996527</v>
       </c>
       <c r="F12">
-        <v>4.449314429804181</v>
+        <v>4.767122817307647</v>
       </c>
       <c r="G12">
-        <v>-6.293824199181216</v>
+        <v>-6.294782840904515</v>
       </c>
       <c r="H12">
-        <v>28.1715872864066</v>
+        <v>28.22312193212078</v>
       </c>
       <c r="I12">
-        <v>0.1572708606968604</v>
+        <v>2.837398859540527</v>
       </c>
       <c r="J12">
-        <v>2.621547256861918</v>
+        <v>3.251218898322887</v>
       </c>
       <c r="K12">
-        <v>3.143744577685867</v>
+        <v>1.92438332108154</v>
       </c>
       <c r="L12">
-        <v>1.909909702165232</v>
+        <v>0.6232221892603538</v>
       </c>
       <c r="M12">
-        <v>0.5951934068024108</v>
+        <v>1.037146576071312</v>
       </c>
       <c r="N12">
-        <v>0.9324633528272367</v>
+        <v>-0.2469670931062072</v>
       </c>
       <c r="O12">
-        <v>-0.2768442296367429</v>
+        <v>3.79294163276347</v>
       </c>
       <c r="P12">
-        <v>3.815242924948619</v>
+        <v>1.627181384846892</v>
       </c>
       <c r="Q12">
-        <v>1.619044641129844</v>
+        <v>0.2585706612276475</v>
       </c>
       <c r="R12">
-        <v>0.2698282404745156</v>
+        <v>0.9737132543989638</v>
       </c>
       <c r="S12">
-        <v>0.9634494037308353</v>
-      </c>
-      <c r="T12">
-        <v>1.982896938059203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+        <v>1.997053620781276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
       <c r="C13">
-        <v>-0.2856715455144346</v>
+        <v>-0.2715411168670303</v>
       </c>
       <c r="D13">
-        <v>1.757087997855329</v>
+        <v>1.988726929966912</v>
       </c>
       <c r="E13">
-        <v>-1.104425692705581</v>
+        <v>-1.169771676144744</v>
       </c>
       <c r="F13">
-        <v>4.907184063940351</v>
+        <v>5.252049589793248</v>
       </c>
       <c r="G13">
-        <v>-5.60817587312103</v>
+        <v>-5.607929575331489</v>
       </c>
       <c r="H13">
-        <v>30.81563667215892</v>
+        <v>30.88047596999914</v>
       </c>
       <c r="I13">
-        <v>0.7709981532222443</v>
+        <v>2.976535343525796</v>
       </c>
       <c r="J13">
-        <v>2.73801997063631</v>
+        <v>4.998235123679925</v>
       </c>
       <c r="K13">
-        <v>4.827711718681988</v>
+        <v>2.911629163003858</v>
       </c>
       <c r="L13">
-        <v>2.881652868877697</v>
+        <v>0.8161142700796924</v>
       </c>
       <c r="M13">
-        <v>0.7631409116454992</v>
+        <v>1.52315349521262</v>
       </c>
       <c r="N13">
-        <v>1.360846612670887</v>
+        <v>-0.2359769778269392</v>
       </c>
       <c r="O13">
-        <v>-0.2659795133536839</v>
+        <v>4.252517284468825</v>
       </c>
       <c r="P13">
-        <v>4.273614165931072</v>
+        <v>2.512437632883199</v>
       </c>
       <c r="Q13">
-        <v>2.515040202536595</v>
+        <v>0.3894003337025713</v>
       </c>
       <c r="R13">
-        <v>0.3891995090288151</v>
+        <v>1.337463682011296</v>
       </c>
       <c r="S13">
-        <v>1.33265238266845</v>
-      </c>
-      <c r="T13">
-        <v>2.838066940083922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+        <v>2.853404053166557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
       <c r="C14">
-        <v>-0.2879468705988225</v>
+        <v>-0.2651989997585189</v>
       </c>
       <c r="D14">
-        <v>1.832783051700172</v>
+        <v>2.071214487785494</v>
       </c>
       <c r="E14">
-        <v>-0.9854314313897435</v>
+        <v>-1.052412437715572</v>
       </c>
       <c r="F14">
-        <v>4.655272496948078</v>
+        <v>4.989873053434511</v>
       </c>
       <c r="G14">
-        <v>-5.689448417701462</v>
+        <v>-5.689471126845126</v>
       </c>
       <c r="H14">
-        <v>29.79877011490871</v>
+        <v>29.85962851960662</v>
       </c>
       <c r="I14">
-        <v>0.4505818812056329</v>
+        <v>3.386065541140775</v>
       </c>
       <c r="J14">
-        <v>3.11947505285113</v>
+        <v>3.957225048050745</v>
       </c>
       <c r="K14">
-        <v>3.828312552632692</v>
+        <v>2.650630025418931</v>
       </c>
       <c r="L14">
-        <v>2.616343305827139</v>
+        <v>0.7717527967681721</v>
       </c>
       <c r="M14">
-        <v>0.728833975416963</v>
+        <v>1.283411515704855</v>
       </c>
       <c r="N14">
-        <v>1.142986499068269</v>
+        <v>-0.2280911917459013</v>
       </c>
       <c r="O14">
-        <v>-0.2567339255463822</v>
+        <v>3.829715347197584</v>
       </c>
       <c r="P14">
-        <v>3.860759877202963</v>
+        <v>2.243284832302315</v>
       </c>
       <c r="Q14">
-        <v>2.23500233851616</v>
+        <v>0.3619757240740097</v>
       </c>
       <c r="R14">
-        <v>0.3687254276143579</v>
+        <v>1.230406878139688</v>
       </c>
       <c r="S14">
-        <v>1.228042307130493</v>
-      </c>
-      <c r="T14">
-        <v>2.577188793953777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+        <v>2.59462186014649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
+      <c r="B15">
+        <v>31</v>
+      </c>
       <c r="C15">
-        <v>-0.3544331866002751</v>
+        <v>-0.3245962421815746</v>
       </c>
       <c r="D15">
-        <v>1.919457252657683</v>
+        <v>2.180545428687854</v>
       </c>
       <c r="E15">
-        <v>-1.18372428905871</v>
+        <v>-1.267371316316485</v>
       </c>
       <c r="F15">
-        <v>5.019238712209357</v>
+        <v>5.368689110537439</v>
       </c>
       <c r="G15">
-        <v>-6.619916058978068</v>
+        <v>-6.615166541782703</v>
       </c>
       <c r="H15">
-        <v>33.44350611044711</v>
+        <v>33.52018257726593</v>
       </c>
       <c r="I15">
-        <v>0.4575318457670133</v>
+        <v>3.569099774782265</v>
       </c>
       <c r="J15">
-        <v>3.283472373228321</v>
+        <v>4.081019995058593</v>
       </c>
       <c r="K15">
-        <v>3.958573557918903</v>
+        <v>2.619584721315387</v>
       </c>
       <c r="L15">
-        <v>2.587605305636349</v>
+        <v>0.800650193561754</v>
       </c>
       <c r="M15">
-        <v>0.7589053203945982</v>
+        <v>1.321946171302365</v>
       </c>
       <c r="N15">
-        <v>1.174742732301473</v>
+        <v>-0.2614468489906278</v>
       </c>
       <c r="O15">
-        <v>-0.2987208797466515</v>
+        <v>4.747757141054228</v>
       </c>
       <c r="P15">
-        <v>4.773884727420442</v>
+        <v>2.396147622243574</v>
       </c>
       <c r="Q15">
-        <v>2.391591690457545</v>
+        <v>0.3799077332959174</v>
       </c>
       <c r="R15">
-        <v>0.3923276934547297</v>
+        <v>1.288704755715312</v>
       </c>
       <c r="S15">
-        <v>1.281802017636965</v>
-      </c>
-      <c r="T15">
-        <v>2.789286946790546</v>
+        <v>2.803527906133678</v>
       </c>
     </row>
   </sheetData>

--- a/H1299_143B_prot-nucl-quant/AA_influx_143B-GOT-DKO/influx.xlsx
+++ b/H1299_143B_prot-nucl-quant/AA_influx_143B-GOT-DKO/influx.xlsx
@@ -667,55 +667,55 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>-0.1976908230990747</v>
+        <v>-0.4601002191258979</v>
       </c>
       <c r="D4">
-        <v>1.668877588437393</v>
+        <v>3.946530084217791</v>
       </c>
       <c r="E4">
-        <v>-0.9916756214476237</v>
+        <v>-2.309473935388859</v>
       </c>
       <c r="F4">
-        <v>4.53777615523043</v>
+        <v>10.65296871322787</v>
       </c>
       <c r="G4">
-        <v>-7.386666103244165</v>
+        <v>-17.20302932067917</v>
       </c>
       <c r="H4">
-        <v>30.86687853890717</v>
+        <v>72.48500992800288</v>
       </c>
       <c r="I4">
-        <v>3.389609757650578</v>
+        <v>8.006538530894851</v>
       </c>
       <c r="J4">
-        <v>3.513847614725071</v>
+        <v>8.306187958149858</v>
       </c>
       <c r="K4">
-        <v>1.845894210784885</v>
+        <v>4.412497668631419</v>
       </c>
       <c r="L4">
-        <v>0.6114702317105837</v>
+        <v>1.451864805056978</v>
       </c>
       <c r="M4">
-        <v>1.205246138194753</v>
+        <v>2.86562923286289</v>
       </c>
       <c r="N4">
-        <v>-0.2722295797523007</v>
+        <v>-0.6338111049795785</v>
       </c>
       <c r="O4">
-        <v>3.704318025537702</v>
+        <v>8.68718320402307</v>
       </c>
       <c r="P4">
-        <v>1.978176577644994</v>
+        <v>4.717842828161794</v>
       </c>
       <c r="Q4">
-        <v>0.2994777298706934</v>
+        <v>0.7115816353937646</v>
       </c>
       <c r="R4">
-        <v>1.148225997915985</v>
+        <v>2.730705703247422</v>
       </c>
       <c r="S4">
-        <v>2.705194325476246</v>
+        <v>6.407395720652649</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,55 +726,55 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-0.2521202128978156</v>
+        <v>-0.5872585276553696</v>
       </c>
       <c r="D5">
-        <v>1.626332771969195</v>
+        <v>3.599840109289425</v>
       </c>
       <c r="E5">
-        <v>-1.338323355562259</v>
+        <v>-3.112546797680143</v>
       </c>
       <c r="F5">
-        <v>4.91959783770865</v>
+        <v>11.18245196704395</v>
       </c>
       <c r="G5">
-        <v>-8.250706408015267</v>
+        <v>-19.18768419559631</v>
       </c>
       <c r="H5">
-        <v>32.07192099838648</v>
+        <v>72.76287638882796</v>
       </c>
       <c r="I5">
-        <v>3.545734268514494</v>
+        <v>7.90340369639252</v>
       </c>
       <c r="J5">
-        <v>3.783820465290889</v>
+        <v>8.425652914697986</v>
       </c>
       <c r="K5">
-        <v>2.133556198879333</v>
+        <v>4.615660135916456</v>
       </c>
       <c r="L5">
-        <v>0.6331557610630135</v>
+        <v>1.387746041223212</v>
       </c>
       <c r="M5">
-        <v>1.166208843526315</v>
+        <v>2.53323530544607</v>
       </c>
       <c r="N5">
-        <v>-0.3005288943979423</v>
+        <v>-0.6994918641622992</v>
       </c>
       <c r="O5">
-        <v>3.930175210847422</v>
+        <v>8.956830202048227</v>
       </c>
       <c r="P5">
-        <v>2.030625586072738</v>
+        <v>4.384659188946465</v>
       </c>
       <c r="Q5">
-        <v>0.2870166777584373</v>
+        <v>0.6244528720617868</v>
       </c>
       <c r="R5">
-        <v>0.8395770488033267</v>
+        <v>1.780161564906615</v>
       </c>
       <c r="S5">
-        <v>2.605888849477671</v>
+        <v>5.733561346241053</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -785,55 +785,55 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>-0.2375592389624449</v>
+        <v>-0.5532159165332875</v>
       </c>
       <c r="D6">
-        <v>2.19240934740187</v>
+        <v>4.639977003486791</v>
       </c>
       <c r="E6">
-        <v>-1.080377868675713</v>
+        <v>-2.506090796842305</v>
       </c>
       <c r="F6">
-        <v>5.159218777999051</v>
+        <v>11.33507342834077</v>
       </c>
       <c r="G6">
-        <v>-7.927875871924648</v>
+        <v>-18.38611924522624</v>
       </c>
       <c r="H6">
-        <v>36.03846534061186</v>
+        <v>79.13472824780183</v>
       </c>
       <c r="I6">
-        <v>2.731830863022316</v>
+        <v>5.501334855394246</v>
       </c>
       <c r="J6">
-        <v>5.848042818511781</v>
+        <v>12.65037687559705</v>
       </c>
       <c r="K6">
-        <v>2.749122363102042</v>
+        <v>5.531983711616</v>
       </c>
       <c r="L6">
-        <v>0.8477013355563938</v>
+        <v>1.759432498012125</v>
       </c>
       <c r="M6">
-        <v>1.5564595053661</v>
+        <v>3.173600141436216</v>
       </c>
       <c r="N6">
-        <v>-0.2886352999221793</v>
+        <v>-0.6708273694909632</v>
       </c>
       <c r="O6">
-        <v>4.05163906421988</v>
+        <v>8.950118271230888</v>
       </c>
       <c r="P6">
-        <v>3.052284591301146</v>
+        <v>6.255279283842566</v>
       </c>
       <c r="Q6">
-        <v>0.3581551130299225</v>
+        <v>0.7257342893069696</v>
       </c>
       <c r="R6">
-        <v>1.313655661931677</v>
+        <v>2.626386180076662</v>
       </c>
       <c r="S6">
-        <v>3.164421345163718</v>
+        <v>6.542556988226958</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -844,55 +844,55 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-0.2715171743050191</v>
+        <v>-0.6318663949402803</v>
       </c>
       <c r="D7">
-        <v>2.095361201351433</v>
+        <v>4.451208361022293</v>
       </c>
       <c r="E7">
-        <v>-1.072094673200753</v>
+        <v>-2.487210743167065</v>
       </c>
       <c r="F7">
-        <v>5.19607677651087</v>
+        <v>11.47268426635366</v>
       </c>
       <c r="G7">
-        <v>-7.779862563365891</v>
+        <v>-18.04557914673563</v>
       </c>
       <c r="H7">
-        <v>35.25517945679277</v>
+        <v>77.68589175377883</v>
       </c>
       <c r="I7">
-        <v>3.735218785616983</v>
+        <v>7.895895329065937</v>
       </c>
       <c r="J7">
-        <v>3.723752827756233</v>
+        <v>7.798918232638525</v>
       </c>
       <c r="K7">
-        <v>2.900469558125335</v>
+        <v>5.951359109317032</v>
       </c>
       <c r="L7">
-        <v>0.7639980414225782</v>
+        <v>1.582119428039325</v>
       </c>
       <c r="M7">
-        <v>1.381671030963445</v>
+        <v>2.803648503667529</v>
       </c>
       <c r="N7">
-        <v>-0.2885712761061903</v>
+        <v>-0.6706632188406972</v>
       </c>
       <c r="O7">
-        <v>4.10046506849019</v>
+        <v>9.100417946235877</v>
       </c>
       <c r="P7">
-        <v>2.480756400285365</v>
+        <v>4.996740286489318</v>
       </c>
       <c r="Q7">
-        <v>0.3361020046668998</v>
+        <v>0.6830992831898239</v>
       </c>
       <c r="R7">
-        <v>1.363495826958458</v>
+        <v>2.776011861283032</v>
       </c>
       <c r="S7">
-        <v>2.767049432299695</v>
+        <v>5.685762417441031</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -903,55 +903,55 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>-0.2256681963648567</v>
+        <v>-0.5251047436548465</v>
       </c>
       <c r="D8">
-        <v>2.123916236123063</v>
+        <v>4.594349062418525</v>
       </c>
       <c r="E8">
-        <v>-1.048484062390015</v>
+        <v>-2.432188596649668</v>
       </c>
       <c r="F8">
-        <v>5.360432060934465</v>
+        <v>11.96246917612224</v>
       </c>
       <c r="G8">
-        <v>-7.479236724042012</v>
+        <v>-17.3471083963353</v>
       </c>
       <c r="H8">
-        <v>34.56943608046768</v>
+        <v>76.86226265162806</v>
       </c>
       <c r="I8">
-        <v>3.063572991415963</v>
+        <v>6.48282427668831</v>
       </c>
       <c r="J8">
-        <v>5.693597511051499</v>
+        <v>12.52473682597627</v>
       </c>
       <c r="K8">
-        <v>2.955920369714488</v>
+        <v>6.226130849374006</v>
       </c>
       <c r="L8">
-        <v>0.8042039510093605</v>
+        <v>1.711121722579216</v>
       </c>
       <c r="M8">
-        <v>1.56558714620589</v>
+        <v>3.305706033110512</v>
       </c>
       <c r="N8">
-        <v>-0.2681587575427527</v>
+        <v>-0.6230292644213608</v>
       </c>
       <c r="O8">
-        <v>4.393211239436296</v>
+        <v>9.856191381431524</v>
       </c>
       <c r="P8">
-        <v>2.523102652973388</v>
+        <v>5.23762024900577</v>
       </c>
       <c r="Q8">
-        <v>0.4088948343282403</v>
+        <v>0.8700791551981641</v>
       </c>
       <c r="R8">
-        <v>1.415727105574423</v>
+        <v>2.96995316201763</v>
       </c>
       <c r="S8">
-        <v>3.219966559462748</v>
+        <v>6.873988179963272</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -962,55 +962,55 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>-0.2817966771851828</v>
+        <v>-0.6562463834733151</v>
       </c>
       <c r="D9">
-        <v>1.83646652876608</v>
+        <v>3.87811554096439</v>
       </c>
       <c r="E9">
-        <v>-1.220341546704497</v>
+        <v>-2.833832117566792</v>
       </c>
       <c r="F9">
-        <v>5.277170010956184</v>
+        <v>11.70569631394082</v>
       </c>
       <c r="G9">
-        <v>-8.83269315147594</v>
+        <v>-20.50781214829152</v>
       </c>
       <c r="H9">
-        <v>36.16479943642505</v>
+        <v>80.10997718392366</v>
       </c>
       <c r="I9">
-        <v>2.255801104604311</v>
+        <v>4.513473421898122</v>
       </c>
       <c r="J9">
-        <v>5.756460770508114</v>
+        <v>12.57360048250359</v>
       </c>
       <c r="K9">
-        <v>2.435754160906945</v>
+        <v>4.923021975010426</v>
       </c>
       <c r="L9">
-        <v>0.6970981485837784</v>
+        <v>1.43929323652388</v>
       </c>
       <c r="M9">
-        <v>1.348928075873737</v>
+        <v>2.75344398355667</v>
       </c>
       <c r="N9">
-        <v>-0.3193847512814186</v>
+        <v>-0.742794088322563</v>
       </c>
       <c r="O9">
-        <v>4.133875028571303</v>
+        <v>9.210664876743383</v>
       </c>
       <c r="P9">
-        <v>2.368349803441666</v>
+        <v>4.784220658353978</v>
       </c>
       <c r="Q9">
-        <v>0.3171434743638771</v>
+        <v>0.6453044504987453</v>
       </c>
       <c r="R9">
-        <v>1.238550753874134</v>
+        <v>2.510906369208884</v>
       </c>
       <c r="S9">
-        <v>2.62186139985404</v>
+        <v>5.396406057741645</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1021,55 +1021,55 @@
         <v>31</v>
       </c>
       <c r="C10">
-        <v>-0.2996735518187309</v>
+        <v>-0.6886015135571584</v>
       </c>
       <c r="D10">
-        <v>1.354545820369869</v>
+        <v>3.383190576888618</v>
       </c>
       <c r="E10">
-        <v>-1.15190962773333</v>
+        <v>-2.651761918765903</v>
       </c>
       <c r="F10">
-        <v>4.373211327171076</v>
+        <v>10.44355973153949</v>
       </c>
       <c r="G10">
-        <v>-5.677180742312606</v>
+        <v>-13.06994180972272</v>
       </c>
       <c r="H10">
-        <v>24.90537299894338</v>
+        <v>59.98430934220707</v>
       </c>
       <c r="I10">
-        <v>1.94783827606523</v>
+        <v>4.98126792458992</v>
       </c>
       <c r="J10">
-        <v>3.593674179834519</v>
+        <v>8.816522049777095</v>
       </c>
       <c r="K10">
-        <v>1.823175182701564</v>
+        <v>4.699846776626831</v>
       </c>
       <c r="L10">
-        <v>0.5283690027968918</v>
+        <v>1.33940967069364</v>
       </c>
       <c r="M10">
-        <v>0.9096116106180773</v>
+        <v>2.353807933014878</v>
       </c>
       <c r="N10">
-        <v>-0.2387485024878762</v>
+        <v>-0.5488037933099281</v>
       </c>
       <c r="O10">
-        <v>3.802648022552066</v>
+        <v>9.020662150681238</v>
       </c>
       <c r="P10">
-        <v>1.232786958729727</v>
+        <v>3.328300812788735</v>
       </c>
       <c r="Q10">
-        <v>0.2429743334170944</v>
+        <v>0.6218519055535353</v>
       </c>
       <c r="R10">
-        <v>0.8611285140590491</v>
+        <v>2.232774512908518</v>
       </c>
       <c r="S10">
-        <v>1.692065326984691</v>
+        <v>4.369585888383203</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1080,55 +1080,55 @@
         <v>31</v>
       </c>
       <c r="C11">
-        <v>-0.3068790544159682</v>
+        <v>-0.7061640043819672</v>
       </c>
       <c r="D11">
-        <v>1.786707966986726</v>
+        <v>4.198054443540312</v>
       </c>
       <c r="E11">
-        <v>-1.225534236368672</v>
+        <v>-2.8217077375945</v>
       </c>
       <c r="F11">
-        <v>5.158454633068007</v>
+        <v>11.9966530545925</v>
       </c>
       <c r="G11">
-        <v>-6.054336351422505</v>
+        <v>-13.93992995307479</v>
       </c>
       <c r="H11">
-        <v>30.32576449434795</v>
+        <v>70.66625352889668</v>
       </c>
       <c r="I11">
-        <v>2.85529707719647</v>
+        <v>6.732320301470841</v>
       </c>
       <c r="J11">
-        <v>4.535474208141109</v>
+        <v>10.61556589484048</v>
       </c>
       <c r="K11">
-        <v>2.534316948962269</v>
+        <v>5.995023653010724</v>
       </c>
       <c r="L11">
-        <v>0.7403575856028187</v>
+        <v>1.743776068780298</v>
       </c>
       <c r="M11">
-        <v>1.391310715120105</v>
+        <v>3.286064753416243</v>
       </c>
       <c r="N11">
-        <v>-0.2408912371638516</v>
+        <v>-0.5543761586442226</v>
       </c>
       <c r="O11">
-        <v>4.08318380938131</v>
+        <v>9.486054596469035</v>
       </c>
       <c r="P11">
-        <v>2.285223226985292</v>
+        <v>5.417608346645883</v>
       </c>
       <c r="Q11">
-        <v>0.3384607658680104</v>
+        <v>0.7991676926876338</v>
       </c>
       <c r="R11">
-        <v>1.277998141035788</v>
+        <v>3.022165152541678</v>
       </c>
       <c r="S11">
-        <v>2.873738198693853</v>
+        <v>6.767552654853512</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1139,55 +1139,55 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>-0.2942941817111834</v>
+        <v>-0.6783703583116445</v>
       </c>
       <c r="D12">
-        <v>1.61564411874783</v>
+        <v>3.584133397546978</v>
       </c>
       <c r="E12">
-        <v>-1.179089978996527</v>
+        <v>-2.715270924668651</v>
       </c>
       <c r="F12">
-        <v>4.767122817307647</v>
+        <v>10.78424848873093</v>
       </c>
       <c r="G12">
-        <v>-6.294782840904515</v>
+        <v>-14.49544647241076</v>
       </c>
       <c r="H12">
-        <v>28.22312193212078</v>
+        <v>63.62837652151637</v>
       </c>
       <c r="I12">
-        <v>2.837398859540527</v>
+        <v>6.277910554713618</v>
       </c>
       <c r="J12">
-        <v>3.251218898322887</v>
+        <v>7.207305441979795</v>
       </c>
       <c r="K12">
-        <v>1.92438332108154</v>
+        <v>4.172716659274595</v>
       </c>
       <c r="L12">
-        <v>0.6232221892603538</v>
+        <v>1.37180821111343</v>
       </c>
       <c r="M12">
-        <v>1.037146576071312</v>
+        <v>2.254606448790013</v>
       </c>
       <c r="N12">
-        <v>-0.2469670931062072</v>
+        <v>-0.5691446687462509</v>
       </c>
       <c r="O12">
-        <v>3.79294163276347</v>
+        <v>8.597290378574318</v>
       </c>
       <c r="P12">
-        <v>1.627181384846892</v>
+        <v>3.494625837099541</v>
       </c>
       <c r="Q12">
-        <v>0.2585706612276475</v>
+        <v>0.5632666632706508</v>
       </c>
       <c r="R12">
-        <v>0.9737132543989638</v>
+        <v>2.113383277265509</v>
       </c>
       <c r="S12">
-        <v>1.997053620781276</v>
+        <v>4.354650812126522</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1198,55 +1198,55 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>-0.2715411168670303</v>
+        <v>-0.625920109904034</v>
       </c>
       <c r="D13">
-        <v>1.988726929966912</v>
+        <v>4.454057582199843</v>
       </c>
       <c r="E13">
-        <v>-1.169771676144744</v>
+        <v>-2.693786227451501</v>
       </c>
       <c r="F13">
-        <v>5.252049589793248</v>
+        <v>11.91620544018883</v>
       </c>
       <c r="G13">
-        <v>-5.607929575331489</v>
+        <v>-12.91379806113989</v>
       </c>
       <c r="H13">
-        <v>30.88047596999914</v>
+        <v>69.85562244155508</v>
       </c>
       <c r="I13">
-        <v>2.976535343525796</v>
+        <v>6.618696933111879</v>
       </c>
       <c r="J13">
-        <v>4.998235123679925</v>
+        <v>11.25224395700535</v>
       </c>
       <c r="K13">
-        <v>2.911629163003858</v>
+        <v>6.466580051054872</v>
       </c>
       <c r="L13">
-        <v>0.8161142700796924</v>
+        <v>1.821010175390972</v>
       </c>
       <c r="M13">
-        <v>1.52315349521262</v>
+        <v>3.384348564632482</v>
       </c>
       <c r="N13">
-        <v>-0.2359769778269392</v>
+        <v>-0.5437997969133322</v>
       </c>
       <c r="O13">
-        <v>4.252517284468825</v>
+        <v>9.66638598463728</v>
       </c>
       <c r="P13">
-        <v>2.512437632883199</v>
+        <v>5.553151473289382</v>
       </c>
       <c r="Q13">
-        <v>0.3894003337025713</v>
+        <v>0.8670795420657338</v>
       </c>
       <c r="R13">
-        <v>1.337463682011296</v>
+        <v>2.961233038878634</v>
       </c>
       <c r="S13">
-        <v>2.853404053166557</v>
+        <v>6.345948822263418</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1257,55 +1257,55 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>-0.2651989997585189</v>
+        <v>-0.6109521833761902</v>
       </c>
       <c r="D14">
-        <v>2.071214487785494</v>
+        <v>4.712054966027518</v>
       </c>
       <c r="E14">
-        <v>-1.052412437715572</v>
+        <v>-2.423406664743486</v>
       </c>
       <c r="F14">
-        <v>4.989873053434511</v>
+        <v>11.40883793812483</v>
       </c>
       <c r="G14">
-        <v>-5.689471126845126</v>
+        <v>-13.10101025833356</v>
       </c>
       <c r="H14">
-        <v>29.85962851960662</v>
+        <v>68.18449264521028</v>
       </c>
       <c r="I14">
-        <v>3.386065541140775</v>
+        <v>7.689486777654605</v>
       </c>
       <c r="J14">
-        <v>3.957225048050745</v>
+        <v>8.994784098719862</v>
       </c>
       <c r="K14">
-        <v>2.650630025418931</v>
+        <v>5.994864049042547</v>
       </c>
       <c r="L14">
-        <v>0.7717527967681721</v>
+        <v>1.750493237176931</v>
       </c>
       <c r="M14">
-        <v>1.283411515704855</v>
+        <v>2.899122649907098</v>
       </c>
       <c r="N14">
-        <v>-0.2280911917459013</v>
+        <v>-0.5254027443739225</v>
       </c>
       <c r="O14">
-        <v>3.829715347197584</v>
+        <v>8.761053416213903</v>
       </c>
       <c r="P14">
-        <v>2.243284832302315</v>
+        <v>5.059535435384988</v>
       </c>
       <c r="Q14">
-        <v>0.3619757240740097</v>
+        <v>0.8200002132633954</v>
       </c>
       <c r="R14">
-        <v>1.230406878139688</v>
+        <v>2.779105462858365</v>
       </c>
       <c r="S14">
-        <v>2.59462186014649</v>
+        <v>5.872031095004495</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1316,55 +1316,55 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>-0.3245962421815746</v>
+        <v>-0.7477656456715627</v>
       </c>
       <c r="D15">
-        <v>2.180545428687854</v>
+        <v>4.954431634075065</v>
       </c>
       <c r="E15">
-        <v>-1.267371316316485</v>
+        <v>-2.91837350948574</v>
       </c>
       <c r="F15">
-        <v>5.368689110537439</v>
+        <v>12.26781121057433</v>
       </c>
       <c r="G15">
-        <v>-6.615166541782703</v>
+        <v>-15.23249894349913</v>
       </c>
       <c r="H15">
-        <v>33.52018257726593</v>
+        <v>76.51958458412429</v>
       </c>
       <c r="I15">
-        <v>3.569099774782265</v>
+        <v>8.093355020593709</v>
       </c>
       <c r="J15">
-        <v>4.081019995058593</v>
+        <v>9.26063099034493</v>
       </c>
       <c r="K15">
-        <v>2.619584721315387</v>
+        <v>5.905608664001312</v>
       </c>
       <c r="L15">
-        <v>0.800650193561754</v>
+        <v>1.812681570245205</v>
       </c>
       <c r="M15">
-        <v>1.321946171302365</v>
+        <v>2.978668543170334</v>
       </c>
       <c r="N15">
-        <v>-0.2614468489906278</v>
+        <v>-0.6022367183394356</v>
       </c>
       <c r="O15">
-        <v>4.747757141054228</v>
+        <v>10.86550777559287</v>
       </c>
       <c r="P15">
-        <v>2.396147622243574</v>
+        <v>5.394176610554213</v>
       </c>
       <c r="Q15">
-        <v>0.3799077332959174</v>
+        <v>0.8590804678584871</v>
       </c>
       <c r="R15">
-        <v>1.288704755715312</v>
+        <v>2.904490513223773</v>
       </c>
       <c r="S15">
-        <v>2.803527906133678</v>
+        <v>6.336285552188762</v>
       </c>
     </row>
   </sheetData>
